--- a/public/inscrits.xlsx
+++ b/public/inscrits.xlsx
@@ -128,6 +128,26 @@
         </is>
       </c>
     </row>
+    <row r="4" spans="1:4" customHeight="0">
+      <c r="A4" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>mohamed@goal.ma</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2023-07-11T13:53:20.000000Z</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>2023-07-11T13:53:20.000000Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>
